--- a/data/trans_camb/P3A_R1-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R1-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>2.122809990117057</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>10.26558396878957</v>
+        <v>10.26558396878956</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>5.258506408245589</v>
@@ -664,7 +664,7 @@
         <v>7.012628173767927</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>10.00278982480292</v>
+        <v>10.00278982480293</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.668531850233398</v>
+        <v>5.20872710395954</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.479394421474423</v>
+        <v>7.772414755056202</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.626601620943757</v>
+        <v>5.426195377074942</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.52775612504138</v>
+        <v>-2.720232735816306</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.26033297371162</v>
+        <v>-1.441577947678118</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.074705202056804</v>
+        <v>6.966179546802954</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.417164652973279</v>
+        <v>2.297312256581918</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.788092884456763</v>
+        <v>4.222978392215302</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.22796510382448</v>
+        <v>7.335625716074305</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.08415220125204</v>
+        <v>14.19179212128414</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.35262999518261</v>
+        <v>16.73763319373574</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.26812484125113</v>
+        <v>14.00322818316152</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.623049834465889</v>
+        <v>4.373941094313919</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.591772421815041</v>
+        <v>5.455121598775682</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>13.89217345662548</v>
+        <v>13.51202757013746</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.247583944946099</v>
+        <v>7.906948930656989</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.851229328057675</v>
+        <v>9.84941193643896</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>12.94256374077435</v>
+        <v>12.8962191359363</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.1885524515894515</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9118107759639433</v>
+        <v>0.9118107759639431</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.3900254970105776</v>
@@ -769,7 +769,7 @@
         <v>0.5201294011043595</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.7419108716485763</v>
+        <v>0.7419108716485767</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.3298841198375734</v>
+        <v>0.2906732402269104</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.4279741714728892</v>
+        <v>0.4441195411662204</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3184224770102003</v>
+        <v>0.3147807435686707</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1913313851667006</v>
+        <v>-0.2137602818685221</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0960256577778472</v>
+        <v>-0.1087638657427927</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5458419188878485</v>
+        <v>0.5225633660878566</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1565825855234748</v>
+        <v>0.1595436093219352</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2455198763922206</v>
+        <v>0.2848636330711334</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4863602551984213</v>
+        <v>0.4895564128701436</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.031965045507711</v>
+        <v>1.025216349408186</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.17173618010747</v>
+        <v>1.218697088176908</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.035009166938587</v>
+        <v>1.01904330200086</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.505181295441832</v>
+        <v>0.4619973150327749</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6019136986810019</v>
+        <v>0.5612461372129148</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.507269591343614</v>
+        <v>1.436649925726268</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6631713856498371</v>
+        <v>0.6271780348931582</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7895216466355847</v>
+        <v>0.8066585968291727</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.07689278699943</v>
+        <v>1.060204485502926</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>9.217292987355275</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>12.82462618492184</v>
+        <v>12.82462618492185</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>5.669658998494345</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.981970716129111</v>
+        <v>4.108903565932611</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.5479710105188</v>
+        <v>7.638211991272517</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.928372823826216</v>
+        <v>5.281836681844577</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.664469573162735</v>
+        <v>0.4767630705643196</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6.169592173737191</v>
+        <v>6.081462983619191</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>9.410752661214367</v>
+        <v>9.994534769277196</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.189411623987534</v>
+        <v>3.223966762073122</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.497604103937137</v>
+        <v>7.783105293518211</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>8.738197846908493</v>
+        <v>8.36046512937517</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.56399009777805</v>
+        <v>11.94178329043183</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.38962952080099</v>
+        <v>15.62463343843763</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.11809018531507</v>
+        <v>14.02300918285206</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.82049450028053</v>
+        <v>6.524705384080891</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>12.69125093106257</v>
+        <v>12.76815942130208</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>15.76240132026467</v>
+        <v>15.90800255772488</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>8.273480697746233</v>
+        <v>8.204158845391712</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.78718399563338</v>
+        <v>12.83449109004681</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>13.71858995981293</v>
+        <v>13.58276820674743</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1869079860644211</v>
+        <v>0.1813575304432286</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3460222174953291</v>
+        <v>0.3398085823481456</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.265936365690369</v>
+        <v>0.2460802480911512</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.05890845530706567</v>
+        <v>0.02275524195685077</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4975802811012546</v>
+        <v>0.5153672200619996</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8139909424802685</v>
+        <v>0.8373896240987013</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1962027931714675</v>
+        <v>0.1968244202729439</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4665447324541319</v>
+        <v>0.476723771356389</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5314285207001549</v>
+        <v>0.5162869171188388</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6471938341877681</v>
+        <v>0.6706089052782663</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8500702642477801</v>
+        <v>0.8697051234498839</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.761569655163789</v>
+        <v>0.7741568806849732</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.801634232896045</v>
+        <v>0.7367271760760175</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.456146783787152</v>
+        <v>1.408187190443828</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.820131348555964</v>
+        <v>1.816735803423525</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5996714018094418</v>
+        <v>0.5942408709733779</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9337116959853348</v>
+        <v>0.9303881816756646</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9717035035262342</v>
+        <v>0.9777144296337351</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.516736243575713</v>
+        <v>-2.890111200886893</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.349240859271756</v>
+        <v>3.920646259780568</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.852562571320931</v>
+        <v>2.888618235132248</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.382415440353141</v>
+        <v>-1.454995516190464</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.100580193735154</v>
+        <v>2.750859845861568</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.896635275627696</v>
+        <v>5.850353315608832</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.9418442188361948</v>
+        <v>-1.235597800768577</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.44998476272614</v>
+        <v>4.227922825471928</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.340066082192616</v>
+        <v>5.582867246065141</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.92827255677554</v>
+        <v>7.112341503540046</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.19815013734772</v>
+        <v>13.70929352293505</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.09383600163986</v>
+        <v>13.03166536167418</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.091365971383524</v>
+        <v>5.949461853142735</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.99609467140488</v>
+        <v>10.92988795698563</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.26321127466684</v>
+        <v>13.37635289079472</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.141842061453052</v>
+        <v>5.275701743043689</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>10.86914218409196</v>
+        <v>10.74685169680378</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.55632836171375</v>
+        <v>11.82728818495044</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.09725754419334549</v>
+        <v>-0.1064614739743597</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1192920669111482</v>
+        <v>0.1479142259883169</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1067579996094771</v>
+        <v>0.09943103755095142</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.08302473416897563</v>
+        <v>-0.09502555693931836</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1853330794014699</v>
+        <v>0.1630489554488077</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3661229493727112</v>
+        <v>0.3644234888377444</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.04852680932901857</v>
+        <v>-0.05734827536703724</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.200180619100536</v>
+        <v>0.2087277259970089</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2539859840206365</v>
+        <v>0.2652729525005986</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3177681962536421</v>
+        <v>0.3273037449745753</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.602248462817306</v>
+        <v>0.6301349205013058</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5901790190335332</v>
+        <v>0.5924265023201621</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4949018842569307</v>
+        <v>0.4768520961824364</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9145153495230165</v>
+        <v>0.8888989116411929</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.088229718272118</v>
+        <v>1.093696935545408</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2907521052573227</v>
+        <v>0.3104420247862549</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6041124972051812</v>
+        <v>0.609431928620971</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6545338319802289</v>
+        <v>0.6669504759519101</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>13.26574469167594</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.885235729990075</v>
+        <v>4.885235729990081</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.975978539519154</v>
@@ -1306,7 +1306,7 @@
         <v>9.694977204956931</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.950326009261555</v>
+        <v>4.950326009261552</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.068300642736293</v>
+        <v>1.877701386086128</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.838773322272621</v>
+        <v>8.939004236144998</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8866614631483253</v>
+        <v>1.071686751460681</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7271336801805895</v>
+        <v>0.9726032931501575</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.35430891746374</v>
+        <v>3.227952117712264</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.424040732752642</v>
+        <v>2.078049287164307</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.572626318049217</v>
+        <v>2.352195291449574</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>7.140520207679225</v>
+        <v>7.215385820907672</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.450201857716952</v>
+        <v>2.354378683095402</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.0504759866155</v>
+        <v>10.12675158049303</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.35788717324505</v>
+        <v>17.49022095246689</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.533620790032769</v>
+        <v>8.806615100834417</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.034577994584049</v>
+        <v>7.342922160229548</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.59581195181187</v>
+        <v>9.719654955976186</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.919257870731006</v>
+        <v>7.94430511939849</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.78222495902206</v>
+        <v>7.388107236893751</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>12.35646723923574</v>
+        <v>12.13239389694393</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.496562125725726</v>
+        <v>7.356679208272319</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.5676561947400947</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.209044753185595</v>
+        <v>0.2090447531855953</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3117899081946936</v>
@@ -1411,7 +1411,7 @@
         <v>0.5446642332620598</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2781095265343282</v>
+        <v>0.2781095265343281</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.0808829126050211</v>
+        <v>0.08011602562044295</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3494705938148342</v>
+        <v>0.347065064027181</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.03192197152555673</v>
+        <v>0.04140558125102214</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.05445877040302222</v>
+        <v>0.06491777318933369</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.239267129576939</v>
+        <v>0.2353678941824436</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1663342243271803</v>
+        <v>0.1436337879594707</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1312176003870543</v>
+        <v>0.1172357512875463</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3760383326357906</v>
+        <v>0.3800184507154705</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1330074010647692</v>
+        <v>0.1257736350773744</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4638433542009591</v>
+        <v>0.4677167791734533</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8121844717478576</v>
+        <v>0.8134975707593216</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3941262014567163</v>
+        <v>0.4143379153209927</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6250152260790703</v>
+        <v>0.6549916696763429</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8528773598388476</v>
+        <v>0.8981319287896983</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7136973203644085</v>
+        <v>0.7165800007497642</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4711956299974159</v>
+        <v>0.4332190082901876</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7452452831012248</v>
+        <v>0.7428234380478654</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4655288416561809</v>
+        <v>0.445163566137388</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>6.57486587431351</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>9.344343920352676</v>
+        <v>9.34434392035268</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.652877614354795</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>4.345606584845633</v>
+        <v>4.430603803607778</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>9.351319506768331</v>
+        <v>9.290697623189107</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.896987829425353</v>
+        <v>5.912927251355129</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.155754844246011</v>
+        <v>1.312614750888549</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>4.747836298838815</v>
+        <v>4.912017641301444</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.682361502169869</v>
+        <v>7.779522122229042</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.35684853086908</v>
+        <v>3.329906638056579</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>7.624156837729341</v>
+        <v>7.590639426495269</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>7.292887239352212</v>
+        <v>7.285107175674232</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.551949746235564</v>
+        <v>8.619073109210678</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>13.53921866357433</v>
+        <v>13.64845781987172</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.51272103067653</v>
+        <v>10.36426162084101</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.583492877501705</v>
+        <v>4.558673144304339</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.172832423782115</v>
+        <v>8.237859685074946</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>10.91057025640942</v>
+        <v>11.12180339714087</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.099752680109209</v>
+        <v>6.004122733911855</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>10.32695755233871</v>
+        <v>10.31383063391504</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>10.04329759594777</v>
+        <v>9.971740162218314</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.5483240944692744</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7792902572437382</v>
+        <v>0.7792902572437385</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2839697351687807</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1947027215637182</v>
+        <v>0.2025182346329068</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.4231068733792345</v>
+        <v>0.4187921392521454</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2666195347563035</v>
+        <v>0.2660808811985657</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.09329070164759476</v>
+        <v>0.1019475082722904</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.3708929846707137</v>
+        <v>0.3924385135429804</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5898934590335166</v>
+        <v>0.6082073734926763</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.197651654993579</v>
+        <v>0.1980609055210149</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.4448013154735833</v>
+        <v>0.445677933572215</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.4284155451188887</v>
+        <v>0.431134646889489</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4288655144001426</v>
+        <v>0.4327124379204356</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6786303181086646</v>
+        <v>0.6842512766869315</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.524176789114589</v>
+        <v>0.5210330019095789</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4107302972989295</v>
+        <v>0.401955767072918</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7240550225587368</v>
+        <v>0.7499122061951768</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.9715346802961543</v>
+        <v>1.000686774725839</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3888584340946031</v>
+        <v>0.3798606619172834</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.654686044863345</v>
+        <v>0.6586052536996119</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.6431731133514569</v>
+        <v>0.6377558949511388</v>
       </c>
     </row>
     <row r="34">
